--- a/NEW HR/DONE/JUNILLER, ALTHEA JANINE.xlsx
+++ b/NEW HR/DONE/JUNILLER, ALTHEA JANINE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71D29B0-EE3C-4CCF-9AAC-FF3669B57972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -237,11 +236,17 @@
   <si>
     <t>FL(3-0-0)</t>
   </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>06/5,6/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -620,15 +625,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -641,11 +637,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1342,7 +1347,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1385,7 +1390,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1449,7 +1454,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1514,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1580,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1643,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,7 +1741,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1800,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1865,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1903,7 +1908,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,7 +1983,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2169,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2235,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2293,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2354,7 +2359,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2415,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2490,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2533,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,7 +2599,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2655,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2748,7 +2753,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2816,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,25 +2882,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2907,25 +2912,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2937,13 +2942,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2952,14 +2957,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3263,7 +3268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3273,7 +3278,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3281,34 +3286,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5532" topLeftCell="A73" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="3900" topLeftCell="A68" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3320,16 +3325,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3338,16 +3343,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3358,16 +3363,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3375,7 +3380,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3388,24 +3393,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3440,7 +3445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3449,7 +3454,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>46.25</v>
+        <v>52.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3459,12 +3464,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>80.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3486,7 +3491,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3506,7 +3511,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3530,7 +3535,7 @@
         <v>43136</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3550,7 +3555,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3570,7 +3575,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3590,7 +3595,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3610,7 +3615,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3630,7 +3635,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3650,7 +3655,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3670,7 +3675,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3690,7 +3695,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3714,7 +3719,7 @@
         <v>43422</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3738,7 +3743,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3756,7 +3761,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3776,7 +3781,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3796,7 +3801,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3816,7 +3821,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3836,7 +3841,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3856,7 +3861,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3882,7 +3887,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3902,7 +3907,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3922,7 +3927,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3942,7 +3947,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3962,7 +3967,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3982,7 +3987,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4002,7 +4007,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4020,7 +4025,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4040,7 +4045,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4064,7 +4069,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4084,7 +4089,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4104,7 +4109,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4124,7 +4129,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4144,7 +4149,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4164,7 +4169,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4184,7 +4189,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4204,7 +4209,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4224,7 +4229,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4244,7 +4249,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4268,7 +4273,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4286,7 +4291,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4306,7 +4311,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4326,7 +4331,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4346,7 +4351,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4366,7 +4371,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4386,7 +4391,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4406,7 +4411,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4426,7 +4431,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4446,7 +4451,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4466,7 +4471,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4486,7 +4491,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4506,7 +4511,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4530,7 +4535,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4548,7 +4553,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4568,7 +4573,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4588,7 +4593,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4608,7 +4613,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4628,7 +4633,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4648,7 +4653,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4668,7 +4673,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4688,7 +4693,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4708,7 +4713,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4728,7 +4733,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4748,7 +4753,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4768,7 +4773,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4792,7 +4797,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4810,7 +4815,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4830,87 +4835,113 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H81" s="39"/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H81" s="39">
+        <v>2</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K81" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4926,7 +4957,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4942,7 +4973,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4958,7 +4989,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4974,7 +5005,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4990,7 +5021,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5006,7 +5037,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5022,7 +5053,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5038,7 +5069,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5054,7 +5085,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5070,7 +5101,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5086,7 +5117,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5102,7 +5133,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5118,7 +5149,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5134,7 +5165,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5150,7 +5181,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5166,7 +5197,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5182,7 +5213,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5198,7 +5229,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5214,7 +5245,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5230,7 +5261,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5246,7 +5277,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5262,7 +5293,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5278,7 +5309,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5294,7 +5325,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5310,7 +5341,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5326,7 +5357,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5342,7 +5373,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5358,7 +5389,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5374,7 +5405,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5390,7 +5421,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5406,7 +5437,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5422,7 +5453,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5438,7 +5469,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5454,7 +5485,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5470,7 +5501,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5486,7 +5517,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5502,7 +5533,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5518,7 +5549,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5534,7 +5565,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5550,7 +5581,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5566,7 +5597,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5582,7 +5613,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5598,7 +5629,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5614,7 +5645,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5630,7 +5661,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5646,7 +5677,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5662,7 +5693,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5678,7 +5709,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5694,7 +5725,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5710,7 +5741,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5726,7 +5757,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5742,7 +5773,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5760,23 +5791,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5799,34 +5830,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5532" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="5535" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5839,16 +5870,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5860,19 +5891,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5884,19 +5915,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5904,7 +5935,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5917,24 +5948,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5969,7 +6000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5993,7 +6024,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6015,7 +6046,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43405</v>
       </c>
@@ -6039,7 +6070,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>43</v>
       </c>
@@ -6057,7 +6088,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43497</v>
       </c>
@@ -6081,7 +6112,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43586</v>
       </c>
@@ -6105,7 +6136,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43617</v>
       </c>
@@ -6129,7 +6160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="15"/>
       <c r="C16" s="42"/>
@@ -6145,7 +6176,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -6161,7 +6192,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -6177,7 +6208,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -6193,7 +6224,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -6209,7 +6240,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -6225,7 +6256,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -6241,7 +6272,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -6257,7 +6288,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6273,7 +6304,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6289,7 +6320,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6305,7 +6336,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6321,7 +6352,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6337,7 +6368,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6353,7 +6384,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6369,7 +6400,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6385,7 +6416,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6401,7 +6432,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6417,7 +6448,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6433,7 +6464,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6449,7 +6480,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6465,7 +6496,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6481,7 +6512,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6497,7 +6528,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6513,7 +6544,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6529,7 +6560,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6545,7 +6576,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6561,7 +6592,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6577,7 +6608,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6593,7 +6624,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6609,7 +6640,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6625,7 +6656,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6641,7 +6672,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6657,7 +6688,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6673,7 +6704,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6689,7 +6720,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6705,7 +6736,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6721,7 +6752,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6737,7 +6768,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6753,7 +6784,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6769,7 +6800,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6785,7 +6816,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6801,7 +6832,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6817,7 +6848,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6833,7 +6864,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6849,7 +6880,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6865,7 +6896,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6881,7 +6912,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6897,7 +6928,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6913,7 +6944,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6929,7 +6960,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6945,7 +6976,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6961,7 +6992,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6977,7 +7008,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6993,7 +7024,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7009,7 +7040,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7025,7 +7056,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7041,7 +7072,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7057,7 +7088,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7073,7 +7104,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7089,7 +7120,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7105,7 +7136,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7121,7 +7152,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7137,7 +7168,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7153,7 +7184,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7169,7 +7200,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7185,7 +7216,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7201,7 +7232,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7217,7 +7248,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7233,7 +7264,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7249,7 +7280,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7265,7 +7296,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7281,7 +7312,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7297,7 +7328,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7313,7 +7344,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7329,7 +7360,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7345,7 +7376,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7361,7 +7392,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7377,7 +7408,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7393,7 +7424,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7409,7 +7440,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7425,7 +7456,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7441,7 +7472,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7457,7 +7488,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7473,7 +7504,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7489,7 +7520,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7505,7 +7536,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7521,7 +7552,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7537,7 +7568,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7553,7 +7584,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7569,7 +7600,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7585,7 +7616,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7601,7 +7632,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7617,7 +7648,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7633,7 +7664,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7649,7 +7680,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7665,7 +7696,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7681,7 +7712,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7697,7 +7728,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7713,7 +7744,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7729,7 +7760,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7745,7 +7776,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7761,7 +7792,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7777,7 +7808,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7793,7 +7824,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7809,7 +7840,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7825,7 +7856,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7841,7 +7872,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7857,7 +7888,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7873,7 +7904,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7889,7 +7920,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7905,7 +7936,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7921,7 +7952,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7937,7 +7968,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -7953,7 +7984,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -7984,10 +8015,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8010,7 +8041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8018,21 +8049,21 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8045,7 +8076,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8074,7 +8105,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>28.25</v>
       </c>
@@ -8098,17 +8129,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8129,7 +8160,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8156,7 +8187,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8182,7 +8213,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8208,7 +8239,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8234,7 +8265,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8260,7 +8291,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8286,7 +8317,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8312,7 +8343,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8338,7 +8369,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8358,7 +8389,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8378,7 +8409,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8398,7 +8429,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8419,7 +8450,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8440,7 +8471,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8461,7 +8492,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8482,7 +8513,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8503,7 +8534,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8524,7 +8555,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8545,7 +8576,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8566,7 +8597,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8587,7 +8618,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8608,7 +8639,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8629,7 +8660,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8650,7 +8681,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8671,7 +8702,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8692,7 +8723,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8713,7 +8744,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8734,7 +8765,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8755,7 +8786,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8776,7 +8807,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8797,7 +8828,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8818,7 +8849,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8827,7 +8858,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8836,7 +8867,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8845,7 +8876,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8854,7 +8885,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8863,7 +8894,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8872,7 +8903,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8881,7 +8912,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8890,7 +8921,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8899,7 +8930,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8908,7 +8939,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8917,7 +8948,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8926,7 +8957,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8935,7 +8966,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8944,7 +8975,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8953,7 +8984,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8962,7 +8993,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8971,7 +9002,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8980,7 +9011,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8989,7 +9020,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8998,7 +9029,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9007,7 +9038,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9016,7 +9047,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9025,7 +9056,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9034,7 +9065,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9043,7 +9074,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9052,7 +9083,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9061,7 +9092,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9070,7 +9101,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9079,7 +9110,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/JUNILLER, ALTHEA JANINE.xlsx
+++ b/NEW HR/DONE/JUNILLER, ALTHEA JANINE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2985D8-26B0-4E90-9468-6EC39343577B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -242,11 +243,17 @@
   <si>
     <t>06/5,6/2023</t>
   </si>
+  <si>
+    <t>VL(9-0-0)</t>
+  </si>
+  <si>
+    <t>6/26 - 7/7/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -625,6 +632,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -637,20 +653,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1347,7 +1354,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1397,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1461,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1521,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1587,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1650,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1741,7 +1748,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1800,7 +1807,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1872,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1915,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1990,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2176,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2235,7 +2242,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2300,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2366,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2422,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2497,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2540,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2606,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2655,7 +2662,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2760,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2816,7 +2823,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2865,7 +2872,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2882,25 +2889,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2912,25 +2919,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2942,13 +2949,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2957,14 +2964,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3268,7 +3275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3278,7 +3285,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3286,34 +3293,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="3900" topLeftCell="A68" activePane="bottomLeft"/>
+      <pane ySplit="3900" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3325,16 +3332,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3343,16 +3350,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3363,16 +3370,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3380,7 +3387,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3393,24 +3400,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3445,7 +3452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3454,7 +3461,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>43.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3469,7 +3476,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3491,7 +3498,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3511,7 +3518,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3535,7 +3542,7 @@
         <v>43136</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3555,7 +3562,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3575,7 +3582,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3595,7 +3602,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3615,7 +3622,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3635,7 +3642,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3655,7 +3662,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3675,7 +3682,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3695,7 +3702,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3719,7 +3726,7 @@
         <v>43422</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3743,7 +3750,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3761,7 +3768,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3781,7 +3788,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3801,7 +3808,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3821,7 +3828,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3841,7 +3848,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3861,7 +3868,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3887,7 +3894,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3907,7 +3914,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3927,7 +3934,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3947,7 +3954,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3967,7 +3974,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3987,7 +3994,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4007,7 +4014,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4025,7 +4032,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4045,7 +4052,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4069,7 +4076,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4089,7 +4096,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4109,7 +4116,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4129,7 +4136,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4149,7 +4156,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4169,7 +4176,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4189,7 +4196,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4209,7 +4216,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4229,7 +4236,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4249,7 +4256,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4273,7 +4280,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4291,7 +4298,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4311,7 +4318,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4331,7 +4338,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4351,7 +4358,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4371,7 +4378,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4391,7 +4398,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4411,7 +4418,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4431,7 +4438,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4451,7 +4458,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4471,7 +4478,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4491,7 +4498,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4511,7 +4518,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4535,7 +4542,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4553,7 +4560,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4573,7 +4580,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4593,7 +4600,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4613,7 +4620,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4633,7 +4640,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4653,7 +4660,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4673,7 +4680,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4693,7 +4700,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4713,7 +4720,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4733,7 +4740,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4753,7 +4760,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4773,7 +4780,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4797,7 +4804,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4815,9 +4822,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4835,9 +4842,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4855,9 +4862,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4875,9 +4882,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4895,9 +4902,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4915,9 +4922,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B81" s="20" t="s">
         <v>66</v>
@@ -4941,11 +4948,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="20"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45138</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="39"/>
+      <c r="D82" s="39">
+        <v>9</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
@@ -4955,10 +4968,14 @@
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="K82" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45169</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4973,8 +4990,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45199</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4989,8 +5008,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45230</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -5005,8 +5026,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45260</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -5021,8 +5044,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5037,8 +5062,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>45322</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5053,8 +5080,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>45351</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5069,8 +5098,10 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
+        <v>45382</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5085,8 +5116,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <v>45412</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5101,8 +5134,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <v>45443</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5117,8 +5152,10 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <v>45473</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5133,8 +5170,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>45504</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5149,8 +5188,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
+        <v>45535</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5165,8 +5206,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <v>45565</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5181,8 +5224,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
+        <v>45596</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5197,8 +5242,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <v>45626</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5213,8 +5260,10 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>45657</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5229,8 +5278,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
+        <v>45688</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5245,8 +5296,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
+        <v>45716</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5261,8 +5314,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
+        <v>45747</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5277,8 +5332,10 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40">
+        <v>45777</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5293,8 +5350,10 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40">
+        <v>45808</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -5309,8 +5368,10 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="40">
+        <v>45838</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5325,8 +5386,10 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40">
+        <v>45869</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -5341,8 +5404,10 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40">
+        <v>45900</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -5357,8 +5422,10 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="40">
+        <v>45930</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -5373,8 +5440,10 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="40">
+        <v>45961</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -5389,8 +5458,10 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="40">
+        <v>45991</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -5405,8 +5476,10 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="40">
+        <v>46022</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -5421,8 +5494,10 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40">
+        <v>46053</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -5437,8 +5512,10 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40">
+        <v>46081</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -5453,8 +5530,10 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="40">
+        <v>46112</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -5469,8 +5548,10 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="40">
+        <v>46142</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -5485,8 +5566,10 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="40">
+        <v>46173</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -5501,8 +5584,10 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="40">
+        <v>46203</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -5517,8 +5602,10 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="40">
+        <v>46234</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -5533,8 +5620,10 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="40">
+        <v>46265</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -5549,8 +5638,10 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="40">
+        <v>46295</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -5565,8 +5656,10 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40">
+        <v>46326</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5581,8 +5674,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="40">
+        <v>46356</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -5597,8 +5692,10 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="40">
+        <v>46387</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -5613,8 +5710,10 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="40">
+        <v>46418</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -5629,7 +5728,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5645,7 +5744,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5661,7 +5760,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5677,7 +5776,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5693,7 +5792,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5709,7 +5808,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5725,7 +5824,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5741,7 +5840,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5757,7 +5856,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5773,7 +5872,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5791,23 +5890,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5830,34 +5929,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="5532" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5870,16 +5969,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5891,19 +5990,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5915,19 +6014,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5935,7 +6034,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5948,24 +6047,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6000,7 +6099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6024,7 +6123,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6046,7 +6145,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43405</v>
       </c>
@@ -6070,7 +6169,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>43</v>
       </c>
@@ -6088,7 +6187,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43497</v>
       </c>
@@ -6112,7 +6211,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43586</v>
       </c>
@@ -6136,7 +6235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43617</v>
       </c>
@@ -6160,7 +6259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="15"/>
       <c r="C16" s="42"/>
@@ -6176,7 +6275,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -6192,7 +6291,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -6208,7 +6307,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -6224,7 +6323,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -6240,7 +6339,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -6256,7 +6355,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -6272,7 +6371,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -6288,7 +6387,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6304,7 +6403,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6320,7 +6419,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6336,7 +6435,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6352,7 +6451,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6368,7 +6467,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6384,7 +6483,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6400,7 +6499,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6416,7 +6515,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6432,7 +6531,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6448,7 +6547,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6464,7 +6563,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6480,7 +6579,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6496,7 +6595,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6512,7 +6611,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6528,7 +6627,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6544,7 +6643,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6560,7 +6659,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6576,7 +6675,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6592,7 +6691,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6608,7 +6707,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6624,7 +6723,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6640,7 +6739,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6656,7 +6755,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6672,7 +6771,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6688,7 +6787,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6704,7 +6803,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6720,7 +6819,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6736,7 +6835,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6752,7 +6851,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6768,7 +6867,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6784,7 +6883,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6800,7 +6899,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6816,7 +6915,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6832,7 +6931,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6848,7 +6947,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6864,7 +6963,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6880,7 +6979,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6896,7 +6995,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6912,7 +7011,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6928,7 +7027,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6944,7 +7043,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6960,7 +7059,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6976,7 +7075,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6992,7 +7091,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7008,7 +7107,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7024,7 +7123,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7040,7 +7139,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7056,7 +7155,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7072,7 +7171,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7088,7 +7187,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7104,7 +7203,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7120,7 +7219,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7136,7 +7235,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7152,7 +7251,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7168,7 +7267,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7184,7 +7283,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7200,7 +7299,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7216,7 +7315,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7232,7 +7331,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7248,7 +7347,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7264,7 +7363,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7280,7 +7379,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7296,7 +7395,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7312,7 +7411,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7328,7 +7427,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7344,7 +7443,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7360,7 +7459,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7376,7 +7475,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7392,7 +7491,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7408,7 +7507,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7424,7 +7523,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7440,7 +7539,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7456,7 +7555,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7472,7 +7571,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7488,7 +7587,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7504,7 +7603,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7520,7 +7619,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7536,7 +7635,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7552,7 +7651,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7568,7 +7667,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7584,7 +7683,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7600,7 +7699,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7616,7 +7715,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7632,7 +7731,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7648,7 +7747,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7664,7 +7763,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7680,7 +7779,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7696,7 +7795,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7712,7 +7811,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7728,7 +7827,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7744,7 +7843,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7760,7 +7859,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7776,7 +7875,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7792,7 +7891,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7808,7 +7907,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7824,7 +7923,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7840,7 +7939,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7856,7 +7955,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7872,7 +7971,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7888,7 +7987,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7904,7 +8003,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7920,7 +8019,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7936,7 +8035,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7952,7 +8051,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7968,7 +8067,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -7984,7 +8083,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8015,10 +8114,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8041,7 +8140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8049,21 +8148,21 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8076,7 +8175,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8105,7 +8204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>28.25</v>
       </c>
@@ -8129,17 +8228,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8160,7 +8259,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8187,7 +8286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8213,7 +8312,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8239,7 +8338,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8265,7 +8364,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8291,7 +8390,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8317,7 +8416,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8343,7 +8442,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8369,7 +8468,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8389,7 +8488,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8409,7 +8508,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8429,7 +8528,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8450,7 +8549,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8471,7 +8570,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8492,7 +8591,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8513,7 +8612,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8534,7 +8633,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8555,7 +8654,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8576,7 +8675,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8597,7 +8696,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8618,7 +8717,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8639,7 +8738,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8660,7 +8759,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8681,7 +8780,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8702,7 +8801,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8723,7 +8822,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8744,7 +8843,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8765,7 +8864,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8786,7 +8885,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8807,7 +8906,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8828,7 +8927,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8849,7 +8948,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8858,7 +8957,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8867,7 +8966,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8876,7 +8975,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8885,7 +8984,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8894,7 +8993,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8903,7 +9002,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8912,7 +9011,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8921,7 +9020,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8930,7 +9029,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8939,7 +9038,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8948,7 +9047,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8957,7 +9056,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8966,7 +9065,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8975,7 +9074,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8984,7 +9083,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8993,7 +9092,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9002,7 +9101,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9011,7 +9110,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9020,7 +9119,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9029,7 +9128,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9038,7 +9137,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9047,7 +9146,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9056,7 +9155,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9065,7 +9164,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9074,7 +9173,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9083,7 +9182,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9092,7 +9191,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9101,7 +9200,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9110,7 +9209,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/JUNILLER, ALTHEA JANINE.xlsx
+++ b/NEW HR/DONE/JUNILLER, ALTHEA JANINE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2985D8-26B0-4E90-9468-6EC39343577B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -244,16 +243,16 @@
     <t>06/5,6/2023</t>
   </si>
   <si>
-    <t>VL(9-0-0)</t>
+    <t>VL(15-0-0)</t>
   </si>
   <si>
-    <t>6/26 - 7/7/2023</t>
+    <t>6/26 - 7/17/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -632,15 +631,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -653,11 +643,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1354,7 +1353,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1396,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +1460,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1521,7 +1520,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1586,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1650,7 +1649,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1747,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,7 +1806,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,7 +1871,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1915,7 +1914,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1990,7 +1989,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2175,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2241,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,7 +2299,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2365,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2422,7 +2421,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2496,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2539,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2605,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2662,7 +2661,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2759,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2822,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,7 +2871,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2889,25 +2888,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2919,25 +2918,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2949,13 +2948,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2964,14 +2963,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3275,7 +3274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3285,7 +3284,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3293,34 +3292,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="3900" topLeftCell="A76" activePane="bottomLeft"/>
+      <pane ySplit="3900" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <selection pane="bottomLeft" activeCell="R77" sqref="R77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3332,16 +3331,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3350,16 +3349,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3370,16 +3369,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3387,7 +3386,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3400,24 +3399,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3461,7 +3460,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>43.5</v>
+        <v>37.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3476,7 +3475,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3498,7 +3497,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3518,7 +3517,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3542,7 +3541,7 @@
         <v>43136</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3562,7 +3561,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3582,7 +3581,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3602,7 +3601,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3622,7 +3621,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3642,7 +3641,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3662,7 +3661,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3682,7 +3681,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3702,7 +3701,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>43422</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3750,7 +3749,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3768,7 +3767,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3788,7 +3787,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3808,7 +3807,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3828,7 +3827,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3848,7 +3847,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3868,7 +3867,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3894,7 +3893,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3914,7 +3913,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3934,7 +3933,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3954,7 +3953,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3974,7 +3973,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3994,7 +3993,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4014,7 +4013,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4032,7 +4031,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4052,7 +4051,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4076,7 +4075,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4096,7 +4095,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4116,7 +4115,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4136,7 +4135,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4156,7 +4155,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4176,7 +4175,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4196,7 +4195,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4216,7 +4215,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4236,7 +4235,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4256,7 +4255,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4280,7 +4279,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4298,7 +4297,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4318,7 +4317,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4338,7 +4337,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4358,7 +4357,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4378,7 +4377,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4398,7 +4397,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4418,7 +4417,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4438,7 +4437,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4458,7 +4457,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4478,7 +4477,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4498,7 +4497,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4518,7 +4517,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4542,7 +4541,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4560,7 +4559,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4580,7 +4579,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4600,7 +4599,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4620,7 +4619,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4640,7 +4639,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4660,7 +4659,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4680,7 +4679,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4700,7 +4699,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4720,7 +4719,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4740,7 +4739,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4760,7 +4759,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4780,7 +4779,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4804,7 +4803,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4822,7 +4821,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44957</v>
       </c>
@@ -4842,7 +4841,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -4862,7 +4861,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45016</v>
       </c>
@@ -4882,7 +4881,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45046</v>
       </c>
@@ -4902,7 +4901,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45077</v>
       </c>
@@ -4922,7 +4921,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45107</v>
       </c>
@@ -4948,7 +4947,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45138</v>
       </c>
@@ -4957,7 +4956,7 @@
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
@@ -4972,7 +4971,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45169</v>
       </c>
@@ -4990,7 +4989,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45199</v>
       </c>
@@ -5008,7 +5007,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45230</v>
       </c>
@@ -5026,7 +5025,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45260</v>
       </c>
@@ -5044,7 +5043,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45291</v>
       </c>
@@ -5062,7 +5061,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45322</v>
       </c>
@@ -5080,7 +5079,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45351</v>
       </c>
@@ -5098,7 +5097,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45382</v>
       </c>
@@ -5116,7 +5115,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45412</v>
       </c>
@@ -5134,7 +5133,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45443</v>
       </c>
@@ -5152,7 +5151,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45473</v>
       </c>
@@ -5170,7 +5169,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45504</v>
       </c>
@@ -5188,7 +5187,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45535</v>
       </c>
@@ -5206,7 +5205,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45565</v>
       </c>
@@ -5224,7 +5223,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45596</v>
       </c>
@@ -5242,7 +5241,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45626</v>
       </c>
@@ -5260,7 +5259,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45657</v>
       </c>
@@ -5278,7 +5277,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45688</v>
       </c>
@@ -5296,7 +5295,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45716</v>
       </c>
@@ -5314,7 +5313,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45747</v>
       </c>
@@ -5332,7 +5331,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45777</v>
       </c>
@@ -5350,7 +5349,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45808</v>
       </c>
@@ -5368,7 +5367,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45838</v>
       </c>
@@ -5386,7 +5385,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45869</v>
       </c>
@@ -5404,7 +5403,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45900</v>
       </c>
@@ -5422,7 +5421,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45930</v>
       </c>
@@ -5440,7 +5439,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45961</v>
       </c>
@@ -5458,7 +5457,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45991</v>
       </c>
@@ -5476,7 +5475,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>46022</v>
       </c>
@@ -5494,7 +5493,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>46053</v>
       </c>
@@ -5512,7 +5511,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>46081</v>
       </c>
@@ -5530,7 +5529,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>46112</v>
       </c>
@@ -5548,7 +5547,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>46142</v>
       </c>
@@ -5566,7 +5565,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>46173</v>
       </c>
@@ -5584,7 +5583,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>46203</v>
       </c>
@@ -5602,7 +5601,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>46234</v>
       </c>
@@ -5620,7 +5619,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>46265</v>
       </c>
@@ -5638,7 +5637,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>46295</v>
       </c>
@@ -5656,7 +5655,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>46326</v>
       </c>
@@ -5674,7 +5673,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>46356</v>
       </c>
@@ -5692,7 +5691,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>46387</v>
       </c>
@@ -5710,7 +5709,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>46418</v>
       </c>
@@ -5728,7 +5727,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5744,7 +5743,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5760,7 +5759,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5776,7 +5775,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5792,7 +5791,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5808,7 +5807,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5824,7 +5823,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5840,7 +5839,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5856,7 +5855,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5872,7 +5871,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5890,23 +5889,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5929,34 +5928,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5532" topLeftCell="A13" activePane="bottomLeft"/>
+      <pane ySplit="5535" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5969,16 +5968,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5990,19 +5989,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6014,19 +6013,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6034,7 +6033,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6047,24 +6046,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6099,7 +6098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6123,7 +6122,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6145,7 +6144,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43405</v>
       </c>
@@ -6169,7 +6168,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>43</v>
       </c>
@@ -6187,7 +6186,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43497</v>
       </c>
@@ -6211,7 +6210,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43586</v>
       </c>
@@ -6235,7 +6234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43617</v>
       </c>
@@ -6259,7 +6258,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="15"/>
       <c r="C16" s="42"/>
@@ -6275,7 +6274,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -6291,7 +6290,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -6307,7 +6306,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -6323,7 +6322,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -6339,7 +6338,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -6355,7 +6354,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -6371,7 +6370,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -6387,7 +6386,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6403,7 +6402,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6419,7 +6418,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6435,7 +6434,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6451,7 +6450,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6467,7 +6466,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6483,7 +6482,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6499,7 +6498,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6515,7 +6514,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6531,7 +6530,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6547,7 +6546,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6563,7 +6562,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6579,7 +6578,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6595,7 +6594,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6611,7 +6610,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6627,7 +6626,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6643,7 +6642,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6659,7 +6658,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6675,7 +6674,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6691,7 +6690,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6707,7 +6706,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6723,7 +6722,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6739,7 +6738,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6755,7 +6754,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6771,7 +6770,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6787,7 +6786,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6803,7 +6802,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6819,7 +6818,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6835,7 +6834,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6851,7 +6850,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6867,7 +6866,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6883,7 +6882,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6899,7 +6898,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6915,7 +6914,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6931,7 +6930,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6947,7 +6946,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6963,7 +6962,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6979,7 +6978,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6995,7 +6994,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7011,7 +7010,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7027,7 +7026,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7043,7 +7042,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7059,7 +7058,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7075,7 +7074,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7091,7 +7090,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7107,7 +7106,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7123,7 +7122,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7139,7 +7138,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7155,7 +7154,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7171,7 +7170,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7187,7 +7186,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7203,7 +7202,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7219,7 +7218,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7235,7 +7234,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7251,7 +7250,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7267,7 +7266,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7283,7 +7282,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7299,7 +7298,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7315,7 +7314,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7331,7 +7330,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7347,7 +7346,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7363,7 +7362,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7379,7 +7378,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7395,7 +7394,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7411,7 +7410,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7427,7 +7426,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7443,7 +7442,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7459,7 +7458,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7475,7 +7474,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7491,7 +7490,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7507,7 +7506,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7523,7 +7522,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7539,7 +7538,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7555,7 +7554,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7571,7 +7570,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7587,7 +7586,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7603,7 +7602,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7619,7 +7618,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7635,7 +7634,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7651,7 +7650,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7667,7 +7666,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7683,7 +7682,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7699,7 +7698,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7715,7 +7714,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7731,7 +7730,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7747,7 +7746,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7763,7 +7762,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7779,7 +7778,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7795,7 +7794,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7811,7 +7810,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7827,7 +7826,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7843,7 +7842,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7859,7 +7858,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7875,7 +7874,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7891,7 +7890,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7907,7 +7906,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7923,7 +7922,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7939,7 +7938,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7955,7 +7954,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7971,7 +7970,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7987,7 +7986,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8003,7 +8002,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8019,7 +8018,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8035,7 +8034,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8051,7 +8050,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8067,7 +8066,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8083,7 +8082,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8114,10 +8113,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8140,7 +8139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8148,21 +8147,21 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8175,7 +8174,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8204,7 +8203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>28.25</v>
       </c>
@@ -8228,17 +8227,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8259,7 +8258,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8286,7 +8285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8312,7 +8311,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8338,7 +8337,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8364,7 +8363,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8390,7 +8389,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8416,7 +8415,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8442,7 +8441,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8468,7 +8467,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8488,7 +8487,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8508,7 +8507,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8528,7 +8527,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8549,7 +8548,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8570,7 +8569,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8591,7 +8590,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8612,7 +8611,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8633,7 +8632,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8654,7 +8653,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8675,7 +8674,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8696,7 +8695,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8717,7 +8716,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8738,7 +8737,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8759,7 +8758,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8780,7 +8779,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8801,7 +8800,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8822,7 +8821,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8843,7 +8842,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8864,7 +8863,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8906,7 +8905,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8948,7 +8947,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8957,7 +8956,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8966,7 +8965,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8975,7 +8974,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8984,7 +8983,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8993,7 +8992,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9002,7 +9001,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9011,7 +9010,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9020,7 +9019,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9029,7 +9028,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9038,7 +9037,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9047,7 +9046,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9056,7 +9055,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9065,7 +9064,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9074,7 +9073,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9083,7 +9082,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9092,7 +9091,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9101,7 +9100,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9110,7 +9109,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9119,7 +9118,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9128,7 +9127,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9137,7 +9136,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9146,7 +9145,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9155,7 +9154,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9164,7 +9163,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9173,7 +9172,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9182,7 +9181,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9191,7 +9190,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9200,7 +9199,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9209,7 +9208,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/JUNILLER, ALTHEA JANINE.xlsx
+++ b/NEW HR/DONE/JUNILLER, ALTHEA JANINE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -631,6 +631,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -643,20 +652,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1353,7 +1353,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1396,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1460,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1520,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,7 +1586,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1649,7 +1649,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,7 +1747,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,7 +1806,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,7 +1871,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,7 +1914,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +1989,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2175,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2241,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2299,7 +2299,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2365,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2421,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2496,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2539,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,7 +2605,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2661,7 +2661,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2759,7 +2759,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2822,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3298,10 +3298,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="3900" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="R77" sqref="R77"/>
+      <selection pane="bottomLeft" activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3331,14 +3331,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3349,14 +3349,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3369,14 +3369,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3402,18 +3402,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>37.5</v>
+        <v>41.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3470,7 +3470,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>80.5</v>
+        <v>84.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4954,15 +4954,17 @@
       <c r="B82" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39">
         <v>15</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4976,13 +4978,15 @@
         <v>45169</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4993,19 +4997,25 @@
       <c r="A84" s="40">
         <v>45199</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="B84" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="49">
+        <v>45195</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
@@ -5889,17 +5899,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5934,8 +5944,8 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A13" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="4065" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
@@ -5968,14 +5978,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5989,17 +5999,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6013,17 +6023,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6049,18 +6059,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/DONE/JUNILLER, ALTHEA JANINE.xlsx
+++ b/NEW HR/DONE/JUNILLER, ALTHEA JANINE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C148A9-3DA8-4A01-83B7-43425510833E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -255,11 +254,20 @@
   <si>
     <t>11/23,24/2023</t>
   </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>01/03-05/2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -638,6 +646,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -650,20 +667,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1360,7 +1368,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1403,7 +1411,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1475,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1535,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1601,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1664,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,7 +1762,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1821,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,7 +1886,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1929,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +2004,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2190,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2256,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2306,7 +2314,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2380,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2428,7 +2436,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2511,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2546,7 +2554,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2620,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2668,7 +2676,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2766,7 +2774,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2837,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2878,7 +2886,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2895,25 +2903,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2925,25 +2933,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2955,13 +2963,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2970,14 +2978,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3281,7 +3289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3291,7 +3299,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3299,34 +3307,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <pane ySplit="3900" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomLeft" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3338,16 +3346,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3356,16 +3364,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3376,16 +3384,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3393,7 +3401,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3406,24 +3414,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3458,7 +3466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3467,7 +3475,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>43.75</v>
+        <v>45</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3477,12 +3485,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>86.75</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3504,7 +3512,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3524,7 +3532,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3548,7 +3556,7 @@
         <v>43136</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3568,7 +3576,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3588,7 +3596,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3608,7 +3616,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3628,7 +3636,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3648,7 +3656,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3668,7 +3676,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3688,7 +3696,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3708,7 +3716,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3732,7 +3740,7 @@
         <v>43422</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3756,7 +3764,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3774,7 +3782,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3794,7 +3802,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3814,7 +3822,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3834,7 +3842,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3854,7 +3862,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3874,7 +3882,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3900,7 +3908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3920,7 +3928,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3940,7 +3948,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3960,7 +3968,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3980,7 +3988,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4000,7 +4008,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4020,7 +4028,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4038,7 +4046,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4058,7 +4066,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4082,7 +4090,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4102,7 +4110,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4122,7 +4130,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4142,7 +4150,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4162,7 +4170,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4182,7 +4190,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4202,7 +4210,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4222,7 +4230,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4242,7 +4250,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4262,7 +4270,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4286,7 +4294,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4304,7 +4312,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4324,7 +4332,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4344,7 +4352,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4364,7 +4372,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4384,7 +4392,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4404,7 +4412,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4424,7 +4432,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4444,7 +4452,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4464,7 +4472,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4484,7 +4492,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4504,7 +4512,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4524,7 +4532,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4548,7 +4556,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4566,7 +4574,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4586,7 +4594,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4606,7 +4614,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4626,7 +4634,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4646,7 +4654,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4666,7 +4674,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4686,7 +4694,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4706,7 +4714,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4726,7 +4734,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4746,7 +4754,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4766,7 +4774,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4786,7 +4794,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4810,7 +4818,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4828,7 +4836,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44957</v>
       </c>
@@ -4848,7 +4856,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -4868,7 +4876,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45016</v>
       </c>
@@ -4888,7 +4896,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45046</v>
       </c>
@@ -4908,7 +4916,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45077</v>
       </c>
@@ -4928,7 +4936,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45107</v>
       </c>
@@ -4954,7 +4962,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45138</v>
       </c>
@@ -4980,7 +4988,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45169</v>
       </c>
@@ -5000,7 +5008,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45199</v>
       </c>
@@ -5024,7 +5032,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45230</v>
       </c>
@@ -5044,7 +5052,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="49"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45260</v>
       </c>
@@ -5068,27 +5076,29 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45291</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40">
-        <v>45322</v>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="48" t="s">
+        <v>72</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5104,11 +5114,13 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B89" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
@@ -5117,14 +5129,18 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="39"/>
+      <c r="H89" s="39">
+        <v>3</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5140,9 +5156,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5158,9 +5174,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5176,9 +5192,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5194,9 +5210,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5212,9 +5228,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5230,9 +5246,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5248,9 +5264,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5266,9 +5282,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5284,9 +5300,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5302,9 +5318,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5320,9 +5336,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5338,9 +5354,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5356,9 +5372,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5374,9 +5390,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5392,9 +5408,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5410,9 +5426,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5428,9 +5444,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5446,9 +5462,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5464,9 +5480,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5482,9 +5498,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5500,9 +5516,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5518,9 +5534,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5536,9 +5552,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5554,9 +5570,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5572,9 +5588,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5590,9 +5606,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5608,9 +5624,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5626,9 +5642,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5644,9 +5660,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46265</v>
+        <v>46234</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5662,9 +5678,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46295</v>
+        <v>46265</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5680,9 +5696,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46326</v>
+        <v>46295</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5698,9 +5714,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46356</v>
+        <v>46326</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5716,9 +5732,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46387</v>
+        <v>46356</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5734,9 +5750,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46418</v>
+        <v>46387</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5752,8 +5768,10 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="40">
+        <v>46418</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -5768,7 +5786,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5784,7 +5802,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5800,7 +5818,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5816,7 +5834,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5832,7 +5850,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5848,7 +5866,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5864,7 +5882,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5880,7 +5898,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5896,41 +5914,57 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5953,34 +5987,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4068" topLeftCell="A6" activePane="bottomLeft"/>
+      <pane ySplit="4065" topLeftCell="A6" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5993,16 +6027,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6014,19 +6048,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6038,19 +6072,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6058,7 +6092,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6071,24 +6105,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6123,7 +6157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6147,7 +6181,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6169,7 +6203,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43405</v>
       </c>
@@ -6193,7 +6227,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>43</v>
       </c>
@@ -6211,7 +6245,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43497</v>
       </c>
@@ -6235,7 +6269,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43586</v>
       </c>
@@ -6259,7 +6293,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43617</v>
       </c>
@@ -6283,7 +6317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="15"/>
       <c r="C16" s="42"/>
@@ -6299,7 +6333,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -6315,7 +6349,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -6331,7 +6365,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -6347,7 +6381,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -6363,7 +6397,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -6379,7 +6413,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -6395,7 +6429,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -6411,7 +6445,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6427,7 +6461,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6443,7 +6477,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6459,7 +6493,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6475,7 +6509,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6491,7 +6525,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6507,7 +6541,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6523,7 +6557,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6539,7 +6573,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6555,7 +6589,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6571,7 +6605,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6587,7 +6621,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6603,7 +6637,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6619,7 +6653,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6635,7 +6669,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6651,7 +6685,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6667,7 +6701,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6683,7 +6717,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6699,7 +6733,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6715,7 +6749,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6731,7 +6765,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6747,7 +6781,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6763,7 +6797,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6779,7 +6813,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6795,7 +6829,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6811,7 +6845,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6827,7 +6861,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6843,7 +6877,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6859,7 +6893,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6875,7 +6909,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6891,7 +6925,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6907,7 +6941,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6923,7 +6957,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6939,7 +6973,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6955,7 +6989,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6971,7 +7005,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6987,7 +7021,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7003,7 +7037,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7019,7 +7053,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7035,7 +7069,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7051,7 +7085,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7067,7 +7101,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7083,7 +7117,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7099,7 +7133,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7115,7 +7149,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7131,7 +7165,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7147,7 +7181,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7163,7 +7197,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7179,7 +7213,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7195,7 +7229,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7211,7 +7245,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7227,7 +7261,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7243,7 +7277,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7259,7 +7293,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7275,7 +7309,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7291,7 +7325,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7307,7 +7341,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7323,7 +7357,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7339,7 +7373,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7355,7 +7389,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7371,7 +7405,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7387,7 +7421,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7403,7 +7437,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7419,7 +7453,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7435,7 +7469,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7451,7 +7485,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7467,7 +7501,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7483,7 +7517,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7499,7 +7533,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7515,7 +7549,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7531,7 +7565,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7547,7 +7581,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7563,7 +7597,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7579,7 +7613,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7595,7 +7629,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7611,7 +7645,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7627,7 +7661,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7643,7 +7677,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7659,7 +7693,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7675,7 +7709,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7691,7 +7725,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7707,7 +7741,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7723,7 +7757,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7739,7 +7773,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7755,7 +7789,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7771,7 +7805,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7787,7 +7821,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7803,7 +7837,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7819,7 +7853,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7835,7 +7869,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7851,7 +7885,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7867,7 +7901,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7883,7 +7917,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7899,7 +7933,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7915,7 +7949,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7931,7 +7965,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7947,7 +7981,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7963,7 +7997,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7979,7 +8013,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7995,7 +8029,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8011,7 +8045,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8027,7 +8061,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8043,7 +8077,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8059,7 +8093,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8075,7 +8109,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8091,7 +8125,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8107,7 +8141,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8138,10 +8172,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8164,7 +8198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8172,21 +8206,21 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8199,7 +8233,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8228,7 +8262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>28.25</v>
       </c>
@@ -8252,17 +8286,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8283,7 +8317,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8310,7 +8344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8336,7 +8370,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8362,7 +8396,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8388,7 +8422,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8414,7 +8448,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8440,7 +8474,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8466,7 +8500,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8492,7 +8526,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8512,7 +8546,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8532,7 +8566,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8552,7 +8586,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8573,7 +8607,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8594,7 +8628,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8615,7 +8649,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8636,7 +8670,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8657,7 +8691,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8678,7 +8712,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8699,7 +8733,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8720,7 +8754,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8741,7 +8775,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8762,7 +8796,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8783,7 +8817,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8804,7 +8838,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8825,7 +8859,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8846,7 +8880,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8867,7 +8901,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8888,7 +8922,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8909,7 +8943,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8930,7 +8964,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8951,7 +8985,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8972,7 +9006,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8981,7 +9015,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8990,7 +9024,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8999,7 +9033,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9008,7 +9042,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9017,7 +9051,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9026,7 +9060,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9035,7 +9069,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9044,7 +9078,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9053,7 +9087,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9062,7 +9096,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9071,7 +9105,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9080,7 +9114,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9089,7 +9123,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9098,7 +9132,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9107,7 +9141,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9116,7 +9150,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9125,7 +9159,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9134,7 +9168,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9143,7 +9177,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9152,7 +9186,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9161,7 +9195,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9170,7 +9204,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9179,7 +9213,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9188,7 +9222,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9197,7 +9231,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9206,7 +9240,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9215,7 +9249,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9224,7 +9258,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9233,7 +9267,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
